--- a/Data/CAFB_Markets_HOO.xlsx
+++ b/Data/CAFB_Markets_HOO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hackathon\FoodChain AI\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1193B20B-D802-41C1-93A1-4B1E0692B7BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169DE466-8C7B-4775-A84A-D78B8BAFE4CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="285">
   <si>
     <t>Agency ID</t>
   </si>
@@ -208,9 +208,6 @@
     <t>James Creek Resident Council</t>
   </si>
   <si>
-    <t>Inc 100 N St SW Washington DC 20024</t>
-  </si>
-  <si>
     <t>18410-MOMK-02</t>
   </si>
   <si>
@@ -307,18 +304,12 @@
     <t>Barcroft Elementary School</t>
   </si>
   <si>
-    <t>Communities in Schools NOVA, Arlington The Women's Club of Arlington 700 S Buchanan St Arlington VA 22204</t>
-  </si>
-  <si>
     <t>21861-MOMK-01</t>
   </si>
   <si>
     <t>Willston Multicultural Center</t>
   </si>
   <si>
-    <t>Comunidad 6131 Willston Dr Falls Church VA 22044</t>
-  </si>
-  <si>
     <t>19652-MOMK-01</t>
   </si>
   <si>
@@ -334,9 +325,6 @@
     <t>Dale City Christian Church</t>
   </si>
   <si>
-    <t>Cathedral of Praise 14022 Lindendale Rd Dale City VA 22193</t>
-  </si>
-  <si>
     <t>22181-MOMK-01</t>
   </si>
   <si>
@@ -352,27 +340,18 @@
     <t>First Agape Baptist Church</t>
   </si>
   <si>
-    <t>Leonard Armstrong Rec Center  25 W Reed Ave Alexandria VA 22305</t>
-  </si>
-  <si>
     <t>15566-MOMK-01</t>
   </si>
   <si>
     <t>Georgetown South Community Council</t>
   </si>
   <si>
-    <t>Georgetown South 9444 Taney Rd Manassas VA 20110</t>
-  </si>
-  <si>
     <t>18155-MOMK-01</t>
   </si>
   <si>
     <t>Fairmont Gardens Apartments</t>
   </si>
   <si>
-    <t>Legal Aid Justice Center, Annandale  4100 Wadsworth Ct Annandale VA 22003</t>
-  </si>
-  <si>
     <t>1st and 2nd of the Month</t>
   </si>
   <si>
@@ -382,9 +361,6 @@
     <t>Woodrow Wilson Library</t>
   </si>
   <si>
-    <t>Legal Aid Justice Center, Culmore  6101 Knollwood Dr Falls Church VA 22041</t>
-  </si>
-  <si>
     <t>1st and 4th of the Month</t>
   </si>
   <si>
@@ -394,9 +370,6 @@
     <t>Christ the Redeemer Catholic Church</t>
   </si>
   <si>
-    <t>LINK Mobile Food Pantry LINK Mobile Food Pantry - Christ the Redeemer 46833 Harry Byrd Hwy Sterling VA 20164</t>
-  </si>
-  <si>
     <t>11:30:00</t>
   </si>
   <si>
@@ -406,9 +379,6 @@
     <t>Maranatha Springfield Church</t>
   </si>
   <si>
-    <t>Marantha - Springfield 5515 Cherokee Ave Suite 102 Alexandria VA 22312</t>
-  </si>
-  <si>
     <t>19630-PUSH-01</t>
   </si>
   <si>
@@ -433,9 +403,6 @@
     <t>Rising Hope Mission Church</t>
   </si>
   <si>
-    <t>Rising Hope UMMC 8220 Russell Rd Alexandria VA 22309</t>
-  </si>
-  <si>
     <t>12:30:00</t>
   </si>
   <si>
@@ -448,18 +415,12 @@
     <t>Debre Medehanit Eyesus Ethiopian Ortodox Tewahido Church</t>
   </si>
   <si>
-    <t>Salvation Army (PW County)  13450 Minnieville Rd Woodbridge VA 22192</t>
-  </si>
-  <si>
     <t>19261-PUSH-01</t>
   </si>
   <si>
     <t>St. Anthony of Padua Catholic Church</t>
   </si>
   <si>
-    <t>St. Anthony of Padua Roman Catholic Church 3305 Glen Carlyn Rd Falls Church VA 22041</t>
-  </si>
-  <si>
     <t>Every week</t>
   </si>
   <si>
@@ -469,18 +430,12 @@
     <t>St. Stephen's United Methodist Church</t>
   </si>
   <si>
-    <t>St. Stephen's UMC 9203 Braddock Rd Burke VA 22015</t>
-  </si>
-  <si>
     <t>15830-PUSH-01</t>
   </si>
   <si>
     <t>United Community</t>
   </si>
   <si>
-    <t>Ministries, INC. 7511 Fordson Rd Alexandria VA 22306</t>
-  </si>
-  <si>
     <t>18295-MOMK-01</t>
   </si>
   <si>
@@ -523,18 +478,12 @@
     <t>Calvary Assembly of Holy Cross</t>
   </si>
   <si>
-    <t>Calvary Assembly Calvary Assemby 3505 Hubbard Rd LANDOVER MD 20785</t>
-  </si>
-  <si>
     <t>19472-PUSH-01</t>
   </si>
   <si>
     <t>Catholic Charities - Montgomery County Family Center</t>
   </si>
   <si>
-    <t>Montgomery County Family Center 12247 Georgia Ave Silver Spring MD 20902</t>
-  </si>
-  <si>
     <t>16185-PUSH-01</t>
   </si>
   <si>
@@ -580,36 +529,24 @@
     <t>CMPGC - Belulah Baptist</t>
   </si>
   <si>
-    <t>Community Ministry of PG County (Belulah Baptist) 6056 old central Ave Capitol Heights MD 20743</t>
-  </si>
-  <si>
     <t>18280-MOMK-03</t>
   </si>
   <si>
     <t>CMPGC - New Craig</t>
   </si>
   <si>
-    <t>Community Minstry of PG County (New Craig) 5305 Farmingdale Road Capitol Heights MD 20743</t>
-  </si>
-  <si>
     <t>18280-MOMK-04</t>
   </si>
   <si>
     <t>CMPGC - Oxon Hill</t>
   </si>
   <si>
-    <t>Community Ministry of PG County (Oxon Hill) 7711 Livingston Road Oxon Hill MD 20745</t>
-  </si>
-  <si>
     <t>18280-MOMK-02</t>
   </si>
   <si>
     <t>CMPGC - Seat Pleasant</t>
   </si>
   <si>
-    <t>Community Ministry of PG County (Seat Plesant) 5356 Sheriff Road Capitol Heights  MD 20743</t>
-  </si>
-  <si>
     <t>19471-PUSH-01</t>
   </si>
   <si>
@@ -625,18 +562,12 @@
     <t>HC - Silver Spring</t>
   </si>
   <si>
-    <t>Holy Cross 1500 Forest Glen Rd, Silver Spring MD 20910</t>
-  </si>
-  <si>
     <t>22602-MOMK-02</t>
   </si>
   <si>
     <t>HC - Germantown</t>
   </si>
   <si>
-    <t>Holy Cross- Germantown 19801 Observation Drive Germantown MD 20876</t>
-  </si>
-  <si>
     <t>17845-MOMK-01</t>
   </si>
   <si>
@@ -772,18 +703,12 @@
     <t>Zion Baptist Church (North Campus)</t>
   </si>
   <si>
-    <t>Zion Baptist Church (NorthCampus) 11005 Dayton St Silver Spring MD 20902</t>
-  </si>
-  <si>
     <t>19304-MOMK-01</t>
   </si>
   <si>
     <t>Mount Olivet United Methodist Church</t>
   </si>
   <si>
-    <t>Mount Olivet UMC 1500 N Glebe Rd Arlington VA 22207</t>
-  </si>
-  <si>
     <t>18132-COMK-01</t>
   </si>
   <si>
@@ -808,27 +733,18 @@
     <t>Community Marketplace - Reston</t>
   </si>
   <si>
-    <t>Cathy Hudgins Community Center at Southgate  12125 Pinecrest Rd Reston VA 20190</t>
-  </si>
-  <si>
     <t>18134-COMK-02</t>
   </si>
   <si>
     <t>Community Marketplace - Arlington</t>
   </si>
   <si>
-    <t>Arlington Mill Community Center  909 S Dinwiddie St Arlington VA 22204</t>
-  </si>
-  <si>
     <t>18295-MOMK-02</t>
   </si>
   <si>
     <t>Hermosa Valley Mobile Home Park</t>
   </si>
   <si>
-    <t>Marumsco Mobile Home Park 13950 Richmond Hwy Woodbridge VA 22191</t>
-  </si>
-  <si>
     <t>22694-MOMK-01</t>
   </si>
   <si>
@@ -844,9 +760,6 @@
     <t>THEARC Farm</t>
   </si>
   <si>
-    <t>Attn: The ARC 1801 Mississippi Ave SE Washington DC DC 20020</t>
-  </si>
-  <si>
     <t>43 K St NW Washington DC 20001</t>
   </si>
   <si>
@@ -878,6 +791,90 @@
   </si>
   <si>
     <t>4646 Seminary Rd Alexandria VA 22304</t>
+  </si>
+  <si>
+    <t>100 N St SW Washington DC 20024</t>
+  </si>
+  <si>
+    <t>700 S Buchanan St Arlington VA 22204</t>
+  </si>
+  <si>
+    <t>6131 Willston Dr Falls Church VA 22044</t>
+  </si>
+  <si>
+    <t>14022 Lindendale Rd Dale City VA 22193</t>
+  </si>
+  <si>
+    <t>9444 Taney Rd Manassas VA 20110</t>
+  </si>
+  <si>
+    <t>4100 Wadsworth Ct Annandale VA 22003</t>
+  </si>
+  <si>
+    <t>6101 Knollwood Dr Falls Church VA 22041</t>
+  </si>
+  <si>
+    <t>46833 Harry Byrd Hwy Sterling VA 20164</t>
+  </si>
+  <si>
+    <t>5515 Cherokee Ave Suite 102 Alexandria VA 22312</t>
+  </si>
+  <si>
+    <t>8220 Russell Rd Alexandria VA 22309</t>
+  </si>
+  <si>
+    <t>13450 Minnieville Rd Woodbridge VA 22192</t>
+  </si>
+  <si>
+    <t>3305 Glen Carlyn Rd Falls Church VA 22041</t>
+  </si>
+  <si>
+    <t>9203 Braddock Rd Burke VA 22015</t>
+  </si>
+  <si>
+    <t>7511 Fordson Rd Alexandria VA 22306</t>
+  </si>
+  <si>
+    <t>3505 Hubbard Rd LANDOVER MD 20785</t>
+  </si>
+  <si>
+    <t>12247 Georgia Ave Silver Spring MD 20902</t>
+  </si>
+  <si>
+    <t>6056 old central Ave Capitol Heights MD 20743</t>
+  </si>
+  <si>
+    <t>5305 Farmingdale Road Capitol Heights MD 20743</t>
+  </si>
+  <si>
+    <t>7711 Livingston Road Oxon Hill MD 20745</t>
+  </si>
+  <si>
+    <t>5356 Sheriff Road Capitol Heights  MD 20743</t>
+  </si>
+  <si>
+    <t>1500 Forest Glen Rd, Silver Spring MD 20910</t>
+  </si>
+  <si>
+    <t>19801 Observation Drive Germantown MD 20876</t>
+  </si>
+  <si>
+    <t>11005 Dayton St Silver Spring MD 20902</t>
+  </si>
+  <si>
+    <t>1500 N Glebe Rd Arlington VA 22207</t>
+  </si>
+  <si>
+    <t>12125 Pinecrest Rd Reston VA 20190</t>
+  </si>
+  <si>
+    <t>909 S Dinwiddie St Arlington VA 22204</t>
+  </si>
+  <si>
+    <t>13950 Richmond Hwy Woodbridge VA 22191</t>
+  </si>
+  <si>
+    <t>1801 Mississippi Ave SE Washington DC DC 20020</t>
   </si>
 </sst>
 </file>
@@ -1242,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1382,7 +1379,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -1483,7 +1480,7 @@
         <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="D9" t="s">
         <v>52</v>
@@ -1515,7 +1512,7 @@
         <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
@@ -1538,7 +1535,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D11" t="s">
         <v>52</v>
@@ -1561,7 +1558,7 @@
         <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>257</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
@@ -1578,13 +1575,13 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
         <v>63</v>
       </c>
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -1607,13 +1604,13 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
         <v>65</v>
       </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -1636,16 +1633,16 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
         <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>281</v>
-      </c>
-      <c r="D15" t="s">
-        <v>69</v>
       </c>
       <c r="E15" t="s">
         <v>32</v>
@@ -1659,13 +1656,13 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>71</v>
-      </c>
-      <c r="C16" t="s">
-        <v>72</v>
       </c>
       <c r="D16" t="s">
         <v>21</v>
@@ -1682,16 +1679,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="C17" t="s">
-        <v>75</v>
-      </c>
       <c r="D17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" t="s">
         <v>33</v>
@@ -1708,13 +1705,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
         <v>76</v>
       </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="D18" t="s">
         <v>45</v>
@@ -1731,22 +1728,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" t="s">
         <v>78</v>
       </c>
-      <c r="B19" t="s">
-        <v>79</v>
-      </c>
       <c r="C19" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="D19" t="s">
         <v>21</v>
       </c>
       <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
         <v>80</v>
-      </c>
-      <c r="F19" t="s">
-        <v>81</v>
       </c>
       <c r="G19" t="s">
         <v>17</v>
@@ -1754,22 +1751,22 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="B20" t="s">
-        <v>83</v>
-      </c>
       <c r="C20" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="D20" t="s">
         <v>21</v>
       </c>
       <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" t="s">
         <v>80</v>
-      </c>
-      <c r="F20" t="s">
-        <v>81</v>
       </c>
       <c r="G20" t="s">
         <v>17</v>
@@ -1777,22 +1774,22 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
         <v>84</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>85</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" t="s">
         <v>86</v>
       </c>
-      <c r="D21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>87</v>
-      </c>
-      <c r="F21" t="s">
-        <v>88</v>
       </c>
       <c r="G21" t="s">
         <v>17</v>
@@ -1800,22 +1797,22 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B22" t="s">
         <v>89</v>
       </c>
-      <c r="B22" t="s">
-        <v>90</v>
-      </c>
       <c r="C22" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" t="s">
         <v>91</v>
-      </c>
-      <c r="F22" t="s">
-        <v>92</v>
       </c>
       <c r="G22" t="s">
         <v>34</v>
@@ -1823,13 +1820,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
         <v>93</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
       <c r="C23" t="s">
-        <v>95</v>
+        <v>258</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -1846,13 +1843,13 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C24" t="s">
-        <v>98</v>
+        <v>259</v>
       </c>
       <c r="D24" t="s">
         <v>21</v>
@@ -1869,13 +1866,13 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1892,13 +1889,13 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>260</v>
       </c>
       <c r="D26" t="s">
         <v>21</v>
@@ -1915,13 +1912,13 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D27" t="s">
         <v>52</v>
@@ -1938,13 +1935,13 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B28" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="D28" t="s">
         <v>31</v>
@@ -1961,22 +1958,22 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>261</v>
       </c>
       <c r="D29" t="s">
         <v>45</v>
       </c>
       <c r="E29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G29" t="s">
         <v>24</v>
@@ -1984,13 +1981,13 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B30" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>262</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
@@ -2002,21 +1999,21 @@
         <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="C31" t="s">
-        <v>120</v>
+        <v>263</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
         <v>33</v>
@@ -2025,27 +2022,27 @@
         <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C32" t="s">
-        <v>124</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" t="s">
         <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G32" t="s">
         <v>41</v>
@@ -2053,13 +2050,13 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C33" t="s">
-        <v>128</v>
+        <v>265</v>
       </c>
       <c r="D33" t="s">
         <v>21</v>
@@ -2076,13 +2073,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
@@ -2091,7 +2088,7 @@
         <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -2099,13 +2096,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
         <v>21</v>
@@ -2122,22 +2119,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="G36" t="s">
         <v>41</v>
@@ -2145,13 +2142,13 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C37" t="s">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
@@ -2168,13 +2165,13 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C38" t="s">
-        <v>145</v>
+        <v>268</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -2186,18 +2183,18 @@
         <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="C39" t="s">
-        <v>149</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
         <v>31</v>
@@ -2206,7 +2203,7 @@
         <v>58</v>
       </c>
       <c r="F39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s">
         <v>59</v>
@@ -2214,13 +2211,13 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="B40" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>152</v>
+        <v>270</v>
       </c>
       <c r="D40" t="s">
         <v>21</v>
@@ -2237,13 +2234,13 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="B41" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -2260,13 +2257,13 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="B42" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -2278,30 +2275,30 @@
         <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K42" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B43" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C43" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F43" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G43" t="s">
         <v>24</v>
@@ -2312,22 +2309,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C44" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
       <c r="E44" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F44" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G44" t="s">
         <v>24</v>
@@ -2338,16 +2335,16 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="B45" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
         <v>23</v>
@@ -2364,13 +2361,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="C46" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -2382,21 +2379,21 @@
         <v>57</v>
       </c>
       <c r="K46" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="C47" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="D47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
         <v>23</v>
@@ -2408,18 +2405,18 @@
         <v>34</v>
       </c>
       <c r="K47" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
         <v>21</v>
@@ -2434,18 +2431,18 @@
         <v>59</v>
       </c>
       <c r="K48" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="B49" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C49" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D49" t="s">
         <v>45</v>
@@ -2460,18 +2457,18 @@
         <v>34</v>
       </c>
       <c r="K49" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -2486,18 +2483,18 @@
         <v>34</v>
       </c>
       <c r="K50" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C51" t="s">
-        <v>186</v>
+        <v>273</v>
       </c>
       <c r="D51" t="s">
         <v>31</v>
@@ -2512,18 +2509,18 @@
         <v>34</v>
       </c>
       <c r="K51" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="D52" t="s">
         <v>31</v>
@@ -2538,18 +2535,18 @@
         <v>34</v>
       </c>
       <c r="K52" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>192</v>
+        <v>275</v>
       </c>
       <c r="D53" t="s">
         <v>31</v>
@@ -2564,18 +2561,18 @@
         <v>59</v>
       </c>
       <c r="K53" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c r="D54" t="s">
         <v>31</v>
@@ -2590,21 +2587,21 @@
         <v>41</v>
       </c>
       <c r="K54" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B55" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C55" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E55" t="s">
         <v>33</v>
@@ -2616,18 +2613,18 @@
         <v>41</v>
       </c>
       <c r="K55" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="B56" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="C56" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D56" t="s">
         <v>31</v>
@@ -2642,18 +2639,18 @@
         <v>17</v>
       </c>
       <c r="K56" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -2673,13 +2670,13 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="B58" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>204</v>
+        <v>278</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -2696,13 +2693,13 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="B59" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D59" t="s">
         <v>52</v>
@@ -2711,7 +2708,7 @@
         <v>32</v>
       </c>
       <c r="F59" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G59" t="s">
         <v>34</v>
@@ -2722,16 +2719,16 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B60" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="C60" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E60" t="s">
         <v>23</v>
@@ -2748,39 +2745,39 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
         <v>34</v>
       </c>
       <c r="K61" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B62" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="C62" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="D62" t="s">
         <v>14</v>
@@ -2800,13 +2797,13 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="C63" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D63" t="s">
         <v>14</v>
@@ -2826,13 +2823,13 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B64" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="C64" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="D64" t="s">
         <v>14</v>
@@ -2841,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="F64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G64" t="s">
         <v>34</v>
@@ -2852,22 +2849,22 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B65" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="C65" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="D65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E65" t="s">
+        <v>90</v>
+      </c>
+      <c r="F65" t="s">
         <v>91</v>
-      </c>
-      <c r="F65" t="s">
-        <v>92</v>
       </c>
       <c r="G65" t="s">
         <v>34</v>
@@ -2878,22 +2875,22 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B66" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D66" t="s">
         <v>52</v>
       </c>
       <c r="E66" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="K66" t="s">
         <v>27</v>
@@ -2901,13 +2898,13 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B67" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D67" t="s">
         <v>52</v>
@@ -2927,22 +2924,22 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B68" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C68" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="D68" t="s">
         <v>52</v>
       </c>
       <c r="E68" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F68" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G68" t="s">
         <v>59</v>
@@ -2953,13 +2950,13 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B69" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="C69" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
         <v>45</v>
@@ -2974,44 +2971,44 @@
         <v>59</v>
       </c>
       <c r="K69" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="B70" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="G70" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="K70" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B71" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D71" t="s">
         <v>52</v>
@@ -3031,19 +3028,19 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B72" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="C72" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
         <v>33</v>
@@ -3057,13 +3054,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="D73" t="s">
         <v>45</v>
@@ -3083,13 +3080,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="D74" t="s">
         <v>21</v>
@@ -3106,22 +3103,22 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
         <v>21</v>
       </c>
       <c r="E75" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" t="s">
         <v>80</v>
-      </c>
-      <c r="F75" t="s">
-        <v>81</v>
       </c>
       <c r="G75" t="s">
         <v>59</v>
@@ -3129,22 +3126,22 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>259</v>
+        <v>234</v>
       </c>
       <c r="D76" t="s">
         <v>45</v>
       </c>
       <c r="E76" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="F76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s">
         <v>34</v>
@@ -3161,22 +3158,22 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>260</v>
+        <v>235</v>
       </c>
       <c r="B77" t="s">
-        <v>261</v>
+        <v>236</v>
       </c>
       <c r="C77" t="s">
-        <v>262</v>
+        <v>281</v>
       </c>
       <c r="D77" t="s">
         <v>21</v>
       </c>
       <c r="E77" t="s">
+        <v>79</v>
+      </c>
+      <c r="F77" t="s">
         <v>80</v>
-      </c>
-      <c r="F77" t="s">
-        <v>81</v>
       </c>
       <c r="G77" t="s">
         <v>41</v>
@@ -3193,22 +3190,22 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>263</v>
+        <v>237</v>
       </c>
       <c r="B78" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="D78" t="s">
         <v>21</v>
       </c>
       <c r="E78" t="s">
+        <v>79</v>
+      </c>
+      <c r="F78" t="s">
         <v>80</v>
-      </c>
-      <c r="F78" t="s">
-        <v>81</v>
       </c>
       <c r="G78" t="s">
         <v>17</v>
@@ -3225,13 +3222,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="C79" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D79" t="s">
         <v>45</v>
@@ -3248,13 +3245,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="B80" t="s">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="C80" t="s">
-        <v>271</v>
+        <v>243</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -3263,7 +3260,7 @@
         <v>16</v>
       </c>
       <c r="F80" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G80" t="s">
         <v>59</v>
@@ -3271,13 +3268,13 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="B81" t="s">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="C81" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -3289,7 +3286,7 @@
         <v>57</v>
       </c>
       <c r="G81" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="I81" t="s">
         <v>25</v>
